--- a/docs/artefacts/Ernte.xlsx
+++ b/docs/artefacts/Ernte.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjaminkrumnow/git/gemuesekoopkoeln.github.io/docs/artefacts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94BA4A5A-F634-264E-9FBA-8D2B24F255E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4364745-308D-5B4F-A7C4-22EB60C9E36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20720" yWindow="6240" windowWidth="28040" windowHeight="17440" xr2:uid="{5BC75E93-B47D-6C49-A6DE-AE22F8291839}"/>
+    <workbookView xWindow="22240" yWindow="7760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5BC75E93-B47D-6C49-A6DE-AE22F8291839}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>April</t>
   </si>
@@ -232,9 +233,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -554,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEBFAF0-8922-2B42-B4CD-5DFD1BA8A809}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
@@ -565,10 +569,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="3"/>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
@@ -848,4 +852,247 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB4A093C-48FD-CC40-8392-D12BDB52B6F3}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>CONCATENATE(Sheet1!A2," ",Sheet1!B2)</f>
+        <v>Möhren 8 kg</v>
+      </c>
+      <c r="B2" t="str">
+        <f>CONCATENATE(Sheet1!C2," ",Sheet1!D2)</f>
+        <v>Tomaten 1,5 kg</v>
+      </c>
+      <c r="C2" t="str">
+        <f>CONCATENATE(Sheet1!C2," ",Sheet1!D2)</f>
+        <v>Tomaten 1,5 kg</v>
+      </c>
+      <c r="D2" t="str">
+        <f>CONCATENATE(Sheet1!E2," ",Sheet1!F2)</f>
+        <v>Kartoffeln 1,5 kg</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="str">
+        <f>CONCATENATE(Sheet1!A3," ",Sheet1!B3)</f>
+        <v>Rote Beete 2 Bund</v>
+      </c>
+      <c r="B3" t="str">
+        <f>CONCATENATE(Sheet1!C3," ",Sheet1!D3)</f>
+        <v>Möhren 1,2 kg</v>
+      </c>
+      <c r="C3" t="str">
+        <f>CONCATENATE(Sheet1!C3," ",Sheet1!D3)</f>
+        <v>Möhren 1,2 kg</v>
+      </c>
+      <c r="D3" t="str">
+        <f>CONCATENATE(Sheet1!E3," ",Sheet1!F3)</f>
+        <v>Endiviensalat 1 Stk.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="str">
+        <f>CONCATENATE(Sheet1!A4," ",Sheet1!B4)</f>
+        <v>Radieschen 1 Stk.</v>
+      </c>
+      <c r="B4" t="str">
+        <f>CONCATENATE(Sheet1!C4," ",Sheet1!D4)</f>
+        <v>Auberginen 0,9 kg</v>
+      </c>
+      <c r="C4" t="str">
+        <f>CONCATENATE(Sheet1!C4," ",Sheet1!D4)</f>
+        <v>Auberginen 0,9 kg</v>
+      </c>
+      <c r="D4" t="str">
+        <f>CONCATENATE(Sheet1!E4," ",Sheet1!F4)</f>
+        <v>Sellerie 1 Stk.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>CONCATENATE(Sheet1!A5," ",Sheet1!B5)</f>
+        <v>Salat 1 Stk.</v>
+      </c>
+      <c r="B5" t="str">
+        <f>CONCATENATE(Sheet1!C5," ",Sheet1!D5)</f>
+        <v>Mangold 0,6 kg</v>
+      </c>
+      <c r="C5" t="str">
+        <f>CONCATENATE(Sheet1!C5," ",Sheet1!D5)</f>
+        <v>Mangold 0,6 kg</v>
+      </c>
+      <c r="D5" t="str">
+        <f>CONCATENATE(Sheet1!E5," ",Sheet1!F5)</f>
+        <v>Fenchel 1 Stk.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="str">
+        <f>CONCATENATE(Sheet1!A6," ",Sheet1!B6)</f>
+        <v>Knoblauch 0,1 kg</v>
+      </c>
+      <c r="B6" t="str">
+        <f>CONCATENATE(Sheet1!C6," ",Sheet1!D6)</f>
+        <v>Zuchini 0,5 kg</v>
+      </c>
+      <c r="C6" t="str">
+        <f>CONCATENATE(Sheet1!C6," ",Sheet1!D6)</f>
+        <v>Zuchini 0,5 kg</v>
+      </c>
+      <c r="D6" t="str">
+        <f>CONCATENATE(Sheet1!E6," ",Sheet1!F6)</f>
+        <v>Lauch 1 Stk.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="str">
+        <f>CONCATENATE(Sheet1!A7," ",Sheet1!B7)</f>
+        <v>Petersilie 0,03 kg</v>
+      </c>
+      <c r="B7" t="str">
+        <f>CONCATENATE(Sheet1!C7," ",Sheet1!D7)</f>
+        <v>Gurken 0,4 kg</v>
+      </c>
+      <c r="C7" t="str">
+        <f>CONCATENATE(Sheet1!C7," ",Sheet1!D7)</f>
+        <v>Gurken 0,4 kg</v>
+      </c>
+      <c r="D7" t="str">
+        <f>CONCATENATE(Sheet1!E7," ",Sheet1!F7)</f>
+        <v>Chinakohl 1 Stk.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="str">
+        <f>CONCATENATE(Sheet1!A8," ",Sheet1!B8)</f>
+        <v>Asiasalate 0.2 kg</v>
+      </c>
+      <c r="B8" t="str">
+        <f>CONCATENATE(Sheet1!C8," ",Sheet1!D8)</f>
+        <v>Paprika 0,2 kg</v>
+      </c>
+      <c r="C8" t="str">
+        <f>CONCATENATE(Sheet1!C8," ",Sheet1!D8)</f>
+        <v>Paprika 0,2 kg</v>
+      </c>
+      <c r="D8" t="str">
+        <f>CONCATENATE(Sheet1!E8," ",Sheet1!F8)</f>
+        <v>Kürbis 1 Stk.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="str">
+        <f>CONCATENATE(Sheet1!A9," ",Sheet1!B9)</f>
+        <v>Löwenzahn 0,1 kg</v>
+      </c>
+      <c r="B9" t="str">
+        <f>CONCATENATE(Sheet1!C9," ",Sheet1!D9)</f>
+        <v>Bohnen 0,2 kg</v>
+      </c>
+      <c r="C9" t="str">
+        <f>CONCATENATE(Sheet1!C9," ",Sheet1!D9)</f>
+        <v>Bohnen 0,2 kg</v>
+      </c>
+      <c r="D9" t="str">
+        <f>CONCATENATE(Sheet1!E9," ",Sheet1!F9)</f>
+        <v>Tomaten 0,3 kg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="str">
+        <f>CONCATENATE(Sheet1!A10," ",Sheet1!B10)</f>
+        <v>Frühlingszwiebeln 0,1 kg</v>
+      </c>
+      <c r="B10" t="str">
+        <f>CONCATENATE(Sheet1!C10," ",Sheet1!D10)</f>
+        <v>Zwiebeln 2 Stk.</v>
+      </c>
+      <c r="C10" t="str">
+        <f>CONCATENATE(Sheet1!C10," ",Sheet1!D10)</f>
+        <v>Zwiebeln 2 Stk.</v>
+      </c>
+      <c r="D10" t="str">
+        <f>CONCATENATE(Sheet1!E10," ",Sheet1!F10)</f>
+        <v>Rote Beete 0,7 kg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="str">
+        <f>CONCATENATE(Sheet1!A11," ",Sheet1!B11)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B11" t="str">
+        <f>CONCATENATE(Sheet1!C11," ",Sheet1!D11)</f>
+        <v>Zuckermais 2 Stk.</v>
+      </c>
+      <c r="C11" t="str">
+        <f>CONCATENATE(Sheet1!C11," ",Sheet1!D11)</f>
+        <v>Zuckermais 2 Stk.</v>
+      </c>
+      <c r="D11" t="str">
+        <f>CONCATENATE(Sheet1!E11," ",Sheet1!F11)</f>
+        <v>Knoblauch 0,1 kg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="str">
+        <f>CONCATENATE(Sheet1!A12," ",Sheet1!B12)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B12" t="str">
+        <f>CONCATENATE(Sheet1!C12," ",Sheet1!D12)</f>
+        <v>Salat 2 Stk.</v>
+      </c>
+      <c r="C12" t="str">
+        <f>CONCATENATE(Sheet1!C12," ",Sheet1!D12)</f>
+        <v>Salat 2 Stk.</v>
+      </c>
+      <c r="D12" t="str">
+        <f>CONCATENATE(Sheet1!E12," ",Sheet1!F12)</f>
+        <v>Petersilie 0,03 kg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="str">
+        <f>CONCATENATE(Sheet1!C13," ",Sheet1!D13)</f>
+        <v>Minze 0,03 kg</v>
+      </c>
+      <c r="D13" t="str">
+        <f>CONCATENATE(Sheet1!E13," ",Sheet1!F13)</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>